--- a/data/outputs/OR/37.xlsx
+++ b/data/outputs/OR/37.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ138"/>
+  <dimension ref="A1:BR138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +944,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4053013</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1146,6 +1156,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1373,6 +1384,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4053017</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1584,6 +1600,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4292985</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1795,6 +1816,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2002,6 +2024,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4292982</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2213,6 +2240,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4292981</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2432,6 +2464,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2643,6 +2676,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4292975</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2858,6 +2896,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4292990</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3069,6 +3112,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4521520</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3155,7 +3203,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Li, Guoyin/0000-0002-2099-7974; </t>
+          <t>Li, Guoyin/0000-0002-2099-7974;</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3288,6 +3336,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4521517</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3507,6 +3560,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>2511913</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3730,6 +3788,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4053014</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3949,6 +4012,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>2184027</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4160,6 +4228,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4371,6 +4440,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4292986</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4578,6 +4652,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4789,6 +4864,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4521526</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5000,6 +5080,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4508789</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5211,6 +5296,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4292992</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5422,6 +5512,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5633,6 +5724,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4292974</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5844,6 +5940,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4053025</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6059,6 +6160,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6262,6 +6364,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6481,6 +6584,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4292987</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6696,6 +6804,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6911,6 +7020,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4521509</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7122,6 +7236,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7353,6 +7468,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4053008</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7568,6 +7688,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4521524</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7783,6 +7908,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4053001</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8006,6 +8136,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4053019</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8241,6 +8376,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4053012</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8456,6 +8596,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4508785</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8671,6 +8816,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8874,6 +9020,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9085,6 +9232,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9296,6 +9444,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4508780</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9503,6 +9656,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4053018</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9710,6 +9868,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9921,6 +10080,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4521515</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10132,6 +10296,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>4521521</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10351,6 +10520,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4508803</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10566,6 +10740,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4053011</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10781,6 +10960,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4053021</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11016,6 +11200,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11227,6 +11412,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11430,6 +11616,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>4521530</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11637,6 +11828,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4053004</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11868,6 +12064,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>2795984</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12091,6 +12292,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4053003</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12322,6 +12528,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>4053009</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12545,6 +12756,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12780,6 +12992,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12991,6 +13204,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13210,6 +13424,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>3076969</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13413,6 +13632,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13632,6 +13852,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4508788</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13859,6 +14084,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>4053000</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14082,6 +14312,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>4053022</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14293,6 +14528,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>4521525</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14496,6 +14736,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>2681370</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14711,6 +14956,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>4521529</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14926,6 +15176,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>4521518</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15141,6 +15396,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>4292988</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15360,6 +15620,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15567,6 +15828,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15782,6 +16044,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4521514</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16001,6 +16268,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>4508777</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16216,6 +16488,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>4508778</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16431,6 +16708,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>4292979</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16642,6 +16924,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>4053016</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16849,6 +17136,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>4053007</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17064,6 +17356,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17279,6 +17572,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17502,6 +17796,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>20720603</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17717,6 +18016,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17936,6 +18236,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>4508802</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18155,6 +18460,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>4508795</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18374,6 +18684,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>4508798</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18589,6 +18904,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4292984</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18800,6 +19120,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>4292978</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19011,6 +19336,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19238,6 +19564,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19449,6 +19776,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>4457250</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19664,6 +19996,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19879,6 +20212,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20090,6 +20424,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20305,6 +20640,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20524,6 +20860,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>4292983</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20727,6 +21068,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>4292994</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20938,6 +21284,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>4292977</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21149,6 +21500,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>4292993</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21372,6 +21728,11 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>1020756</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21575,6 +21936,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21790,6 +22152,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21993,6 +22356,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22212,6 +22576,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22423,6 +22788,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>4508783</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22638,6 +23008,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>4292995</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22853,6 +23228,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>4053027</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23076,6 +23456,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>4053020</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23295,6 +23680,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4053006</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23522,6 +23912,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23741,6 +24132,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23952,6 +24344,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24167,6 +24560,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24370,6 +24764,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24581,6 +24976,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24796,6 +25192,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25007,6 +25404,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>4521516</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25226,6 +25628,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>4508800</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25433,6 +25840,11 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>4292976</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25640,6 +26052,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4292991</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25843,6 +26260,11 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>4292989</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26058,6 +26480,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>4053002</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26265,6 +26692,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>4053010</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26484,6 +26916,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26691,6 +27124,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26914,6 +27348,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27129,6 +27564,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27332,6 +27768,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27543,6 +27980,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27738,6 +28176,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27941,6 +28380,11 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr">
+        <is>
+          <t>4521527</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28144,6 +28588,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>4521519</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28355,6 +28804,11 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr">
+        <is>
+          <t>4521528</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28550,6 +29004,11 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr">
+        <is>
+          <t>4508797</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28757,6 +29216,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>4292980</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28960,6 +29424,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>4053015</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29159,6 +29628,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>4053026</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29382,6 +29856,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29609,6 +30084,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29808,6 +30284,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30015,6 +30492,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
